--- a/DateBase/orders/Nhat 48_2026-1-20.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1054,12 +1054,46 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C71" t="str">
+        <v>107_绣球浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F71" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>797_大菊黄_undefined_undefined_5stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>20</v>
+      </c>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L74"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1117,7 +1151,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0281615241018410233111311917535331610201115352040555185101035334010105555515535581012312011209102020555520105517100</v>
+        <v>028161524101841023311131191753533161020111535204055518510103533401010555551553558101231201120910202055552010551710208510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-20.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-20.xlsx
@@ -1153,6 +1153,9 @@
       <c r="G2" t="str">
         <v>028161524101841023311131191753533161020111535204055518510103533401010555551553558101231201120910202055552010551710208510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
